--- a/rt_admin/work/static/sample.xlsx
+++ b/rt_admin/work/static/sample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\rt_admin\work\static\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\rt_admin\rt_admin\work\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF169B69-13E1-4F8A-BE5A-D0177A8EFFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB1AF9-7904-4560-8AAA-93C23C7AC97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -66,13 +66,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -649,17 +649,17 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.9140625" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="40" customHeight="1">
@@ -688,7 +688,7 @@
         <v>202308</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1.9362999999999999</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
         <v>0.3</v>
